--- a/output/StructureDefinition-eicr-anon-immunization.xlsx
+++ b/output/StructureDefinition-eicr-anon-immunization.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-13T06:32:23+10:00</t>
+    <t>2024-06-13T06:51:52+10:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-eicr-anon-immunization.xlsx
+++ b/output/StructureDefinition-eicr-anon-immunization.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-13T06:51:52+10:00</t>
+    <t>2024-06-13T11:16:16+10:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-eicr-anon-immunization.xlsx
+++ b/output/StructureDefinition-eicr-anon-immunization.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-13T11:16:16+10:00</t>
+    <t>2024-06-14T06:31:35+10:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-eicr-anon-immunization.xlsx
+++ b/output/StructureDefinition-eicr-anon-immunization.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-13T11:16:16+10:00</t>
+    <t>2024-06-18T16:49:21+10:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-eicr-anon-immunization.xlsx
+++ b/output/StructureDefinition-eicr-anon-immunization.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-18T16:49:21+10:00</t>
+    <t>2024-06-18T18:40:58+10:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-eicr-anon-immunization.xlsx
+++ b/output/StructureDefinition-eicr-anon-immunization.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-18T18:40:58+10:00</t>
+    <t>2024-06-21T10:51:28+10:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-eicr-anon-immunization.xlsx
+++ b/output/StructureDefinition-eicr-anon-immunization.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T10:51:28+10:00</t>
+    <t>2024-06-21T11:31:43+10:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-eicr-anon-immunization.xlsx
+++ b/output/StructureDefinition-eicr-anon-immunization.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T11:31:43+10:00</t>
+    <t>2024-06-25T09:09:40+10:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-eicr-anon-immunization.xlsx
+++ b/output/StructureDefinition-eicr-anon-immunization.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-25T09:09:40+10:00</t>
+    <t>2024-06-26T05:55:02+10:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-eicr-anon-immunization.xlsx
+++ b/output/StructureDefinition-eicr-anon-immunization.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-26T05:55:02+10:00</t>
+    <t>2024-06-26T06:31:28+10:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,8 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>This Immunization profile represents an anonymized eICR Immunization.
-It is based on the **US Core Immunization** profile with further constraints to require removal of performer.</t>
+    <t>This Immunization profile represents an anonymized eICR Immunization.</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/output/StructureDefinition-eicr-anon-immunization.xlsx
+++ b/output/StructureDefinition-eicr-anon-immunization.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-26T06:31:28+10:00</t>
+    <t>2024-06-26T06:54:29+10:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-eicr-anon-immunization.xlsx
+++ b/output/StructureDefinition-eicr-anon-immunization.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$64</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$73</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2373" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2699" uniqueCount="472">
   <si>
     <t>Property</t>
   </si>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-26T06:54:29+10:00</t>
+    <t>2024-06-28T19:57:37+10:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -393,7 +393,188 @@
     <t>DomainResource.text</t>
   </si>
   <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+eicr-anon-text:text.div SHALL be '&lt;div xmlns="http://www.w3.org/1999/xhtml"&gt;&lt;p&gt;MASKED&lt;/p&gt;&lt;/div&gt;' {`div` ~ '&lt;div xmlns="http://www.w3.org/1999/xhtml"&gt;&lt;p&gt;MASKED&lt;/p&gt;&lt;/div&gt;'}</t>
+  </si>
+  <si>
     <t>Act.text?</t>
+  </si>
+  <si>
+    <t>Immunization.text.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Immunization.text.extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Immunization.text.extension:dataAbsentReason</t>
+  </si>
+  <si>
+    <t>dataAbsentReason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {data-absent-reason}
+</t>
+  </si>
+  <si>
+    <t>Use data-absent-reason with value 'masked'</t>
+  </si>
+  <si>
+    <t>Provides a reason why the expected value or elements in the element that is extended are missing.</t>
+  </si>
+  <si>
+    <t>ANY.nullFlavor</t>
+  </si>
+  <si>
+    <t>Immunization.text.extension:dataAbsentReason.id</t>
+  </si>
+  <si>
+    <t>Immunization.text.extension.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>Immunization.text.extension:dataAbsentReason.extension</t>
+  </si>
+  <si>
+    <t>Immunization.text.extension.extension</t>
+  </si>
+  <si>
+    <t>Immunization.text.extension:dataAbsentReason.url</t>
+  </si>
+  <si>
+    <t>Immunization.text.extension.url</t>
+  </si>
+  <si>
+    <t>identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/StructureDefinition/data-absent-reason</t>
+  </si>
+  <si>
+    <t>Extension.url</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Immunization.text.extension:dataAbsentReason.value[x]</t>
+  </si>
+  <si>
+    <t>Immunization.text.extension.value[x]</t>
+  </si>
+  <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R5/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t>masked</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/data-absent-reason</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ext-1
+</t>
+  </si>
+  <si>
+    <t>Immunization.text.status</t>
+  </si>
+  <si>
+    <t>generated | extensions | additional | empty</t>
+  </si>
+  <si>
+    <t>The status of the narrative - whether it's entirely generated (from just the defined data or the extensions too), or whether a human authored it and it may contain additional data.</t>
+  </si>
+  <si>
+    <t>The status of a resource narrative.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/narrative-status|4.0.1</t>
+  </si>
+  <si>
+    <t>Narrative.status</t>
+  </si>
+  <si>
+    <t>Immunization.text.div</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xhtml
+</t>
+  </si>
+  <si>
+    <t>Set to '&lt;div xmlns="http://www.w3.org/1999/xhtml"&gt;&lt;p&gt;MASKED&lt;/p&gt;&lt;/div&gt;'</t>
+  </si>
+  <si>
+    <t>The actual narrative content, a stripped down version of XHTML.</t>
+  </si>
+  <si>
+    <t>The contents of the html element are an XHTML fragment containing only the basic html formatting elements described in chapters 7-11 and 15 of the HTML 4.0 standard, &lt;a&gt; elements (either name or href), images and internally contained stylesheets. The XHTML content SHALL NOT contain a head, a body, external stylesheet references, scripts, forms, base/link/xlink, frames, iframes and objects.</t>
+  </si>
+  <si>
+    <t>Narrative.div</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+txt-1:The narrative SHALL contain only the basic html formatting elements and attributes described in chapters 7-11 (except section 4 of chapter 9) and 15 of the HTML 4.0 standard, &lt;a&gt; elements (either name or href), images and internally contained style attributes {htmlChecks()}txt-2:The narrative SHALL have some non-whitespace content {htmlChecks()}</t>
   </si>
   <si>
     <t>Immunization.contained</t>
@@ -419,9 +600,6 @@
     <t>DomainResource.contained</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>Immunization.extension</t>
   </si>
   <si>
@@ -429,10 +607,6 @@
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
     <t>Additional content defined by implementations</t>
   </si>
   <si>
@@ -443,10 +617,6 @@
   </si>
   <si>
     <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>Immunization.modifierExtension</t>
@@ -502,9 +672,6 @@
     <t>Will generally be set to show that the immunization has been completed or not done.  This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
   </si>
   <si>
-    <t>required</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/ValueSet/immunization-status</t>
   </si>
   <si>
@@ -780,10 +947,6 @@
     <t>Immunization.lotNumber</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
     <t>Vaccine lot number</t>
   </si>
   <si>
@@ -910,25 +1073,10 @@
     <t>Immunization.performer.id</t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>Immunization.performer.extension</t>
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>Immunization.performer.modifierExtension</t>
@@ -1643,7 +1791,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO64"/>
+  <dimension ref="A1:AO73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1652,9 +1800,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="45.24609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="53.41015625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="45.24609375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.1328125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="17.8359375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
@@ -1680,7 +1828,7 @@
     <col min="26" max="26" width="61.01953125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="42.859375" customWidth="true" bestFit="true" hidden="true"/>
@@ -2499,7 +2647,7 @@
         <v>76</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>99</v>
+        <v>122</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>76</v>
@@ -2508,7 +2656,7 @@
         <v>76</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AN7" t="s" s="2">
         <v>76</v>
@@ -2519,21 +2667,21 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>124</v>
+        <v>76</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>76</v>
@@ -2553,9 +2701,7 @@
       <c r="M8" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="N8" t="s" s="2">
-        <v>128</v>
-      </c>
+      <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
         <v>76</v>
@@ -2604,28 +2750,28 @@
         <v>76</v>
       </c>
       <c r="AF8" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AG8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH8" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM8" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="AG8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH8" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI8" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ8" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK8" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL8" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM8" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="AN8" t="s" s="2">
         <v>76</v>
@@ -2636,18 +2782,18 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>132</v>
+        <v>76</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>78</v>
@@ -2662,17 +2808,15 @@
         <v>76</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L9" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="M9" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="L9" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>136</v>
-      </c>
+      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>76</v>
@@ -2709,16 +2853,16 @@
         <v>76</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="AD9" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>76</v>
+        <v>136</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>137</v>
@@ -2742,7 +2886,7 @@
         <v>76</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="AN9" t="s" s="2">
         <v>76</v>
@@ -2756,43 +2900,41 @@
         <v>139</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="D10" t="s" s="2">
-        <v>132</v>
+        <v>76</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>76</v>
       </c>
@@ -2840,7 +2982,7 @@
         <v>76</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>77</v>
@@ -2861,7 +3003,7 @@
         <v>76</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="AN10" t="s" s="2">
         <v>76</v>
@@ -2872,10 +3014,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2886,7 +3028,7 @@
         <v>77</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>76</v>
@@ -2898,13 +3040,13 @@
         <v>76</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>145</v>
+        <v>89</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -2955,42 +3097,42 @@
         <v>76</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>76</v>
+        <v>147</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>148</v>
+        <v>76</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>150</v>
+        <v>76</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>151</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2998,32 +3140,30 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>155</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>76</v>
@@ -3048,53 +3188,55 @@
         <v>76</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="Y12" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="Y12" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="Z12" t="s" s="2">
-        <v>157</v>
+        <v>76</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="AD12" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>76</v>
+        <v>136</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>158</v>
+        <v>76</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>159</v>
+        <v>76</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>160</v>
+        <v>76</v>
       </c>
       <c r="AO12" t="s" s="2">
         <v>76</v>
@@ -3102,10 +3244,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3113,13 +3255,13 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>76</v>
@@ -3128,16 +3270,16 @@
         <v>76</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>162</v>
+        <v>101</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3145,7 +3287,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>76</v>
+        <v>155</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>76</v>
@@ -3163,11 +3305,13 @@
         <v>76</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="Y13" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="Y13" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="Z13" t="s" s="2">
-        <v>167</v>
+        <v>76</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>76</v>
@@ -3185,10 +3329,10 @@
         <v>76</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>87</v>
@@ -3197,16 +3341,16 @@
         <v>76</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>168</v>
+        <v>76</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>76</v>
@@ -3217,10 +3361,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3234,22 +3378,22 @@
         <v>87</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>162</v>
+        <v>107</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -3258,7 +3402,7 @@
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>76</v>
+        <v>162</v>
       </c>
       <c r="S14" t="s" s="2">
         <v>76</v>
@@ -3276,11 +3420,11 @@
         <v>76</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="Y14" s="2"/>
       <c r="Z14" t="s" s="2">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>76</v>
@@ -3298,46 +3442,46 @@
         <v>76</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>176</v>
+        <v>99</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>177</v>
+        <v>76</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>178</v>
+        <v>76</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>180</v>
+        <v>76</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>181</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>183</v>
+        <v>76</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -3347,22 +3491,22 @@
         <v>87</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>184</v>
+        <v>107</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -3389,13 +3533,13 @@
         <v>76</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>76</v>
+        <v>163</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>76</v>
+        <v>170</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>76</v>
+        <v>171</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>76</v>
@@ -3413,7 +3557,7 @@
         <v>76</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>87</v>
@@ -3428,16 +3572,16 @@
         <v>99</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>186</v>
+        <v>76</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>187</v>
+        <v>76</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>188</v>
+        <v>157</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>189</v>
+        <v>76</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>76</v>
@@ -3445,10 +3589,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3456,7 +3600,7 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>87</v>
@@ -3471,15 +3615,17 @@
         <v>76</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="N16" s="2"/>
+        <v>176</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>177</v>
+      </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>76</v>
@@ -3528,10 +3674,10 @@
         <v>76</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>87</v>
@@ -3540,19 +3686,19 @@
         <v>76</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>99</v>
+        <v>179</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>194</v>
+        <v>76</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>195</v>
+        <v>76</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>196</v>
+        <v>157</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>197</v>
+        <v>76</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>76</v>
@@ -3560,42 +3706,42 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>76</v>
+        <v>181</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3645,53 +3791,53 @@
         <v>76</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>203</v>
+        <v>76</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>204</v>
+        <v>76</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>205</v>
+        <v>157</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>206</v>
+        <v>76</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>207</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>76</v>
+        <v>188</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>76</v>
@@ -3703,15 +3849,17 @@
         <v>76</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>209</v>
+        <v>131</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="N18" s="2"/>
+        <v>190</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>191</v>
+      </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>76</v>
@@ -3760,19 +3908,19 @@
         <v>76</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>76</v>
@@ -3781,10 +3929,10 @@
         <v>76</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>212</v>
+        <v>157</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>213</v>
+        <v>76</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>76</v>
@@ -3792,44 +3940,46 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>214</v>
+        <v>193</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>214</v>
+        <v>193</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>76</v>
+        <v>188</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I19" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="I19" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="J19" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>215</v>
+        <v>131</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>216</v>
+        <v>194</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="O19" s="2"/>
+        <v>191</v>
+      </c>
+      <c r="O19" t="s" s="2">
+        <v>196</v>
+      </c>
       <c r="P19" t="s" s="2">
         <v>76</v>
       </c>
@@ -3877,31 +4027,31 @@
         <v>76</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>219</v>
+        <v>76</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>220</v>
+        <v>157</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>221</v>
+        <v>76</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>76</v>
@@ -3909,10 +4059,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3923,7 +4073,7 @@
         <v>77</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>76</v>
@@ -3935,17 +4085,15 @@
         <v>76</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>162</v>
+        <v>199</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>223</v>
+        <v>200</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>225</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>76</v>
@@ -3970,13 +4118,13 @@
         <v>76</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>166</v>
+        <v>76</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>226</v>
+        <v>76</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>227</v>
+        <v>76</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>76</v>
@@ -3994,13 +4142,13 @@
         <v>76</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>76</v>
@@ -4009,27 +4157,27 @@
         <v>99</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>76</v>
+        <v>202</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>219</v>
+        <v>76</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>228</v>
+        <v>203</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>229</v>
+        <v>206</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>229</v>
+        <v>206</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4037,30 +4185,32 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>230</v>
+        <v>107</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="N21" s="2"/>
+        <v>208</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>209</v>
+      </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>76</v>
@@ -4085,13 +4235,11 @@
         <v>76</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y21" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="Y21" s="2"/>
       <c r="Z21" t="s" s="2">
-        <v>76</v>
+        <v>210</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>76</v>
@@ -4109,10 +4257,10 @@
         <v>76</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>229</v>
+        <v>206</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>87</v>
@@ -4124,16 +4272,16 @@
         <v>99</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>233</v>
+        <v>211</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>234</v>
+        <v>76</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>235</v>
+        <v>212</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>236</v>
+        <v>213</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>76</v>
@@ -4141,10 +4289,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>237</v>
+        <v>214</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>237</v>
+        <v>214</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4158,7 +4306,7 @@
         <v>87</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>76</v>
@@ -4167,15 +4315,17 @@
         <v>76</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>238</v>
+        <v>215</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>239</v>
+        <v>216</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="N22" s="2"/>
+        <v>217</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>218</v>
+      </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>76</v>
@@ -4200,13 +4350,11 @@
         <v>76</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y22" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="Y22" s="2"/>
       <c r="Z22" t="s" s="2">
-        <v>76</v>
+        <v>220</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>76</v>
@@ -4224,7 +4372,7 @@
         <v>76</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>237</v>
+        <v>214</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
@@ -4239,27 +4387,27 @@
         <v>99</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>76</v>
+        <v>221</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>241</v>
+        <v>76</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>242</v>
+        <v>222</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>243</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>244</v>
+        <v>223</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>244</v>
+        <v>223</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4267,28 +4415,28 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>245</v>
+        <v>215</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>246</v>
+        <v>224</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>247</v>
+        <v>225</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4315,13 +4463,11 @@
         <v>76</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y23" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="Y23" s="2"/>
       <c r="Z23" t="s" s="2">
-        <v>76</v>
+        <v>227</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>76</v>
@@ -4339,71 +4485,71 @@
         <v>76</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>244</v>
+        <v>223</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>76</v>
+        <v>228</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>99</v>
+        <v>229</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>76</v>
+        <v>230</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>248</v>
+        <v>231</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>249</v>
+        <v>232</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>76</v>
+        <v>233</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>250</v>
+        <v>234</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>76</v>
+        <v>236</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4454,10 +4600,10 @@
         <v>76</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>87</v>
@@ -4469,16 +4615,16 @@
         <v>99</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>76</v>
+        <v>239</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>76</v>
+        <v>242</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>76</v>
@@ -4486,10 +4632,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4512,13 +4658,13 @@
         <v>76</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>162</v>
+        <v>244</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4545,13 +4691,13 @@
         <v>76</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>166</v>
+        <v>76</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>260</v>
+        <v>76</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>261</v>
+        <v>76</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>76</v>
@@ -4569,7 +4715,7 @@
         <v>76</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
@@ -4584,27 +4730,27 @@
         <v>99</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>76</v>
+        <v>247</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>76</v>
+        <v>250</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>264</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4612,30 +4758,32 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>162</v>
+        <v>252</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>254</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>255</v>
+      </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>76</v>
@@ -4660,13 +4808,13 @@
         <v>76</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>166</v>
+        <v>76</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>268</v>
+        <v>76</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>269</v>
+        <v>76</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>76</v>
@@ -4684,10 +4832,10 @@
         <v>76</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>87</v>
@@ -4699,27 +4847,27 @@
         <v>99</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>76</v>
+        <v>256</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>76</v>
+        <v>259</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>272</v>
+        <v>260</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4742,13 +4890,13 @@
         <v>76</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4799,7 +4947,7 @@
         <v>76</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
@@ -4817,13 +4965,13 @@
         <v>76</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>277</v>
+        <v>76</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>76</v>
+        <v>266</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>76</v>
@@ -4831,10 +4979,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4842,13 +4990,13 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>76</v>
@@ -4857,15 +5005,17 @@
         <v>88</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="N28" s="2"/>
+        <v>270</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>271</v>
+      </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>76</v>
@@ -4914,13 +5064,13 @@
         <v>76</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>76</v>
@@ -4929,16 +5079,16 @@
         <v>99</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>283</v>
+        <v>76</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>76</v>
+        <v>274</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>76</v>
@@ -4946,10 +5096,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4972,15 +5122,17 @@
         <v>76</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>245</v>
+        <v>215</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>277</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>278</v>
+      </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>76</v>
@@ -5005,13 +5157,13 @@
         <v>76</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>76</v>
+        <v>219</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>76</v>
+        <v>279</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>76</v>
+        <v>280</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>76</v>
@@ -5029,7 +5181,7 @@
         <v>76</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
@@ -5041,19 +5193,19 @@
         <v>76</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>76</v>
+        <v>272</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>76</v>
+        <v>274</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>76</v>
@@ -5061,21 +5213,21 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>132</v>
+        <v>76</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>76</v>
@@ -5087,17 +5239,15 @@
         <v>76</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>133</v>
+        <v>283</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>134</v>
+        <v>284</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>76</v>
@@ -5146,31 +5296,31 @@
         <v>76</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>76</v>
+        <v>286</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>76</v>
+        <v>287</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>76</v>
+        <v>289</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>76</v>
@@ -5178,46 +5328,42 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>295</v>
+        <v>76</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>133</v>
+        <v>291</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>76</v>
       </c>
@@ -5265,42 +5411,42 @@
         <v>76</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>76</v>
+        <v>294</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>130</v>
+        <v>295</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>76</v>
+        <v>296</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5320,16 +5466,16 @@
         <v>76</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>162</v>
+        <v>125</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5356,13 +5502,13 @@
         <v>76</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>173</v>
+        <v>76</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>302</v>
+        <v>76</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>303</v>
+        <v>76</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>76</v>
@@ -5380,7 +5526,7 @@
         <v>76</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
@@ -5395,27 +5541,27 @@
         <v>99</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>304</v>
+        <v>76</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>76</v>
+        <v>300</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>76</v>
+        <v>302</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5423,7 +5569,7 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>87</v>
@@ -5435,20 +5581,18 @@
         <v>76</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>310</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>76</v>
@@ -5497,10 +5641,10 @@
         <v>76</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>87</v>
@@ -5512,16 +5656,16 @@
         <v>99</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>311</v>
+        <v>76</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>76</v>
+        <v>307</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>313</v>
+        <v>76</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>76</v>
@@ -5529,10 +5673,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5543,7 +5687,7 @@
         <v>77</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>76</v>
@@ -5552,16 +5696,16 @@
         <v>76</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>315</v>
+        <v>215</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5588,13 +5732,13 @@
         <v>76</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>76</v>
+        <v>219</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>76</v>
+        <v>312</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>76</v>
+        <v>313</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>76</v>
@@ -5612,13 +5756,13 @@
         <v>76</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>76</v>
@@ -5627,27 +5771,27 @@
         <v>99</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>318</v>
+        <v>76</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>76</v>
+        <v>316</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5658,7 +5802,7 @@
         <v>77</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>76</v>
@@ -5670,13 +5814,13 @@
         <v>76</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>162</v>
+        <v>215</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5703,13 +5847,13 @@
         <v>76</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>166</v>
+        <v>219</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>76</v>
@@ -5727,13 +5871,13 @@
         <v>76</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>76</v>
@@ -5742,27 +5886,27 @@
         <v>99</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>326</v>
+        <v>76</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>76</v>
+        <v>322</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>76</v>
+        <v>324</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5773,7 +5917,7 @@
         <v>77</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>76</v>
@@ -5785,13 +5929,13 @@
         <v>76</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5842,13 +5986,13 @@
         <v>76</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>76</v>
@@ -5857,13 +6001,13 @@
         <v>99</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>331</v>
+        <v>76</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>76</v>
+        <v>329</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>130</v>
+        <v>330</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>76</v>
@@ -5874,10 +6018,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5888,19 +6032,19 @@
         <v>77</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="J37" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>215</v>
+        <v>332</v>
       </c>
       <c r="L37" t="s" s="2">
         <v>333</v>
@@ -5908,16 +6052,12 @@
       <c r="M37" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="N37" t="s" s="2">
-        <v>335</v>
-      </c>
+      <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="Q37" t="s" s="2">
-        <v>336</v>
-      </c>
+      <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
         <v>76</v>
       </c>
@@ -5961,13 +6101,13 @@
         <v>76</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>76</v>
@@ -5976,13 +6116,13 @@
         <v>99</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>76</v>
+        <v>335</v>
       </c>
       <c r="AL37" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="AM37" t="s" s="2">
         <v>337</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>76</v>
@@ -6007,7 +6147,7 @@
         <v>77</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>76</v>
@@ -6019,13 +6159,13 @@
         <v>76</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>162</v>
+        <v>125</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>339</v>
+        <v>126</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>340</v>
+        <v>127</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6052,13 +6192,13 @@
         <v>76</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>166</v>
+        <v>76</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>341</v>
+        <v>76</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>342</v>
+        <v>76</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>76</v>
@@ -6076,19 +6216,19 @@
         <v>76</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>338</v>
+        <v>128</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>76</v>
@@ -6097,7 +6237,7 @@
         <v>76</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>76</v>
@@ -6108,14 +6248,14 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>76</v>
+        <v>188</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -6134,15 +6274,17 @@
         <v>76</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>280</v>
+        <v>131</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>344</v>
+        <v>189</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>340</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>191</v>
+      </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>76</v>
@@ -6191,7 +6333,7 @@
         <v>76</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>343</v>
+        <v>137</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
@@ -6203,7 +6345,7 @@
         <v>76</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>346</v>
+        <v>138</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>76</v>
@@ -6212,7 +6354,7 @@
         <v>76</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>76</v>
@@ -6223,42 +6365,46 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>76</v>
+        <v>342</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>245</v>
+        <v>131</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>287</v>
+        <v>343</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
+        <v>344</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="O40" t="s" s="2">
+        <v>196</v>
+      </c>
       <c r="P40" t="s" s="2">
         <v>76</v>
       </c>
@@ -6306,19 +6452,19 @@
         <v>76</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>289</v>
+        <v>345</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>76</v>
+        <v>138</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>76</v>
@@ -6327,7 +6473,7 @@
         <v>76</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>290</v>
+        <v>157</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>76</v>
@@ -6338,21 +6484,21 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>132</v>
+        <v>76</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>76</v>
@@ -6361,20 +6507,18 @@
         <v>76</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>133</v>
+        <v>215</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>134</v>
+        <v>347</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>76</v>
@@ -6399,13 +6543,13 @@
         <v>76</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>76</v>
+        <v>226</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>76</v>
+        <v>349</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>76</v>
+        <v>350</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>76</v>
@@ -6423,28 +6567,28 @@
         <v>76</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>293</v>
+        <v>346</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>76</v>
+        <v>351</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>290</v>
+        <v>352</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>76</v>
@@ -6455,46 +6599,44 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>295</v>
+        <v>76</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="J42" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>133</v>
+        <v>354</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>296</v>
+        <v>355</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>297</v>
+        <v>356</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>357</v>
+      </c>
+      <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>76</v>
       </c>
@@ -6542,31 +6684,31 @@
         <v>76</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>298</v>
+        <v>353</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>76</v>
+        <v>358</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>130</v>
+        <v>359</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>76</v>
+        <v>360</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>76</v>
@@ -6574,10 +6716,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>350</v>
+        <v>361</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>350</v>
+        <v>361</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6588,7 +6730,7 @@
         <v>77</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>76</v>
@@ -6597,16 +6739,16 @@
         <v>76</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>245</v>
+        <v>362</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>351</v>
+        <v>363</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6657,13 +6799,13 @@
         <v>76</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>350</v>
+        <v>361</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>76</v>
@@ -6672,13 +6814,13 @@
         <v>99</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>76</v>
+        <v>365</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>353</v>
+        <v>366</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>130</v>
+        <v>367</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>76</v>
@@ -6689,10 +6831,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>354</v>
+        <v>368</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>354</v>
+        <v>368</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6703,7 +6845,7 @@
         <v>77</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>76</v>
@@ -6715,13 +6857,13 @@
         <v>76</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>101</v>
+        <v>215</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>355</v>
+        <v>369</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>356</v>
+        <v>370</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6748,13 +6890,13 @@
         <v>76</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>76</v>
+        <v>219</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>76</v>
+        <v>371</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>76</v>
+        <v>372</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>76</v>
@@ -6772,13 +6914,13 @@
         <v>76</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>354</v>
+        <v>368</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>76</v>
@@ -6787,13 +6929,13 @@
         <v>99</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>76</v>
+        <v>373</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>130</v>
+        <v>374</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>76</v>
@@ -6804,10 +6946,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>357</v>
+        <v>375</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>357</v>
+        <v>375</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6818,7 +6960,7 @@
         <v>77</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>76</v>
@@ -6830,13 +6972,13 @@
         <v>76</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>209</v>
+        <v>376</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>359</v>
+        <v>377</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6887,13 +7029,13 @@
         <v>76</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>357</v>
+        <v>375</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>76</v>
@@ -6902,13 +7044,13 @@
         <v>99</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>76</v>
+        <v>378</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>360</v>
+        <v>76</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>130</v>
+        <v>157</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>76</v>
@@ -6919,10 +7061,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>361</v>
+        <v>379</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>361</v>
+        <v>379</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6939,26 +7081,30 @@
         <v>76</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>209</v>
+        <v>268</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>362</v>
+        <v>380</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="N46" s="2"/>
+        <v>381</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>382</v>
+      </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="Q46" s="2"/>
+      <c r="Q46" t="s" s="2">
+        <v>383</v>
+      </c>
       <c r="R46" t="s" s="2">
         <v>76</v>
       </c>
@@ -7002,7 +7148,7 @@
         <v>76</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>361</v>
+        <v>379</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
@@ -7020,10 +7166,10 @@
         <v>76</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>364</v>
+        <v>384</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>130</v>
+        <v>157</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>76</v>
@@ -7034,10 +7180,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>365</v>
+        <v>385</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>365</v>
+        <v>385</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7060,13 +7206,13 @@
         <v>76</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>162</v>
+        <v>215</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>366</v>
+        <v>386</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>367</v>
+        <v>387</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7093,13 +7239,13 @@
         <v>76</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>166</v>
+        <v>219</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>368</v>
+        <v>388</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>369</v>
+        <v>389</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>76</v>
@@ -7117,7 +7263,7 @@
         <v>76</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>365</v>
+        <v>385</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>77</v>
@@ -7135,10 +7281,10 @@
         <v>76</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>370</v>
+        <v>76</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>130</v>
+        <v>157</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>76</v>
@@ -7149,10 +7295,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>371</v>
+        <v>390</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>371</v>
+        <v>390</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7163,7 +7309,7 @@
         <v>77</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>76</v>
@@ -7175,13 +7321,13 @@
         <v>76</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>162</v>
+        <v>332</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>372</v>
+        <v>391</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>373</v>
+        <v>392</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7208,13 +7354,13 @@
         <v>76</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>166</v>
+        <v>76</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>374</v>
+        <v>76</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>375</v>
+        <v>76</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>76</v>
@@ -7232,19 +7378,19 @@
         <v>76</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>371</v>
+        <v>390</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>99</v>
+        <v>393</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>76</v>
@@ -7253,7 +7399,7 @@
         <v>76</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>130</v>
+        <v>157</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>76</v>
@@ -7264,10 +7410,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>376</v>
+        <v>394</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>376</v>
+        <v>394</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7278,7 +7424,7 @@
         <v>77</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>76</v>
@@ -7290,17 +7436,15 @@
         <v>76</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>280</v>
+        <v>125</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>377</v>
+        <v>126</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>379</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>76</v>
@@ -7349,28 +7493,28 @@
         <v>76</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>376</v>
+        <v>128</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>380</v>
+        <v>76</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>381</v>
+        <v>129</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>76</v>
@@ -7381,21 +7525,21 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>382</v>
+        <v>395</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>382</v>
+        <v>395</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>76</v>
+        <v>188</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>76</v>
@@ -7407,15 +7551,17 @@
         <v>76</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>245</v>
+        <v>131</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>287</v>
+        <v>189</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>340</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>191</v>
+      </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>76</v>
@@ -7464,19 +7610,19 @@
         <v>76</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>289</v>
+        <v>137</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>76</v>
+        <v>138</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>76</v>
@@ -7485,7 +7631,7 @@
         <v>76</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>290</v>
+        <v>129</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>76</v>
@@ -7496,14 +7642,14 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>383</v>
+        <v>396</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>383</v>
+        <v>396</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>132</v>
+        <v>342</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -7516,24 +7662,26 @@
         <v>76</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>134</v>
+        <v>343</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>292</v>
+        <v>344</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O51" s="2"/>
+        <v>191</v>
+      </c>
+      <c r="O51" t="s" s="2">
+        <v>196</v>
+      </c>
       <c r="P51" t="s" s="2">
         <v>76</v>
       </c>
@@ -7581,7 +7729,7 @@
         <v>76</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>293</v>
+        <v>345</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>77</v>
@@ -7602,7 +7750,7 @@
         <v>76</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>290</v>
+        <v>157</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>76</v>
@@ -7613,46 +7761,42 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>295</v>
+        <v>76</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>296</v>
+        <v>398</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>399</v>
+      </c>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>76</v>
       </c>
@@ -7700,28 +7844,28 @@
         <v>76</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>298</v>
+        <v>397</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>76</v>
+        <v>400</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>130</v>
+        <v>157</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>76</v>
@@ -7732,10 +7876,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>385</v>
+        <v>401</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>385</v>
+        <v>401</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7758,13 +7902,13 @@
         <v>76</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>209</v>
+        <v>101</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>386</v>
+        <v>402</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>387</v>
+        <v>403</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7815,7 +7959,7 @@
         <v>76</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>385</v>
+        <v>401</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>77</v>
@@ -7833,10 +7977,10 @@
         <v>76</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>388</v>
+        <v>76</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>205</v>
+        <v>157</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>76</v>
@@ -7847,10 +7991,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>389</v>
+        <v>404</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>389</v>
+        <v>404</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7873,13 +8017,13 @@
         <v>76</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>390</v>
+        <v>262</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>391</v>
+        <v>405</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>392</v>
+        <v>406</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -7930,7 +8074,7 @@
         <v>76</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>389</v>
+        <v>404</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>77</v>
@@ -7948,10 +8092,10 @@
         <v>76</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>393</v>
+        <v>407</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>394</v>
+        <v>157</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>76</v>
@@ -7962,10 +8106,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>395</v>
+        <v>408</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>395</v>
+        <v>408</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7988,13 +8132,13 @@
         <v>76</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>215</v>
+        <v>262</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>396</v>
+        <v>409</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8045,7 +8189,7 @@
         <v>76</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>395</v>
+        <v>408</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>77</v>
@@ -8063,10 +8207,10 @@
         <v>76</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>398</v>
+        <v>411</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>399</v>
+        <v>157</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>76</v>
@@ -8077,10 +8221,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>400</v>
+        <v>412</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>400</v>
+        <v>412</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8103,13 +8247,13 @@
         <v>76</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>280</v>
+        <v>215</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>401</v>
+        <v>413</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>402</v>
+        <v>414</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8136,13 +8280,13 @@
         <v>76</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>76</v>
+        <v>219</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>76</v>
+        <v>415</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>76</v>
+        <v>416</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>76</v>
@@ -8160,7 +8304,7 @@
         <v>76</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>400</v>
+        <v>412</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>77</v>
@@ -8178,10 +8322,10 @@
         <v>76</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>76</v>
+        <v>417</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>130</v>
+        <v>157</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>76</v>
@@ -8192,10 +8336,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>403</v>
+        <v>418</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>403</v>
+        <v>418</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8218,13 +8362,13 @@
         <v>76</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>245</v>
+        <v>215</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>287</v>
+        <v>419</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>288</v>
+        <v>420</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8251,13 +8395,13 @@
         <v>76</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>76</v>
+        <v>219</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>76</v>
+        <v>421</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>76</v>
+        <v>422</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>76</v>
@@ -8275,7 +8419,7 @@
         <v>76</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>289</v>
+        <v>418</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>77</v>
@@ -8287,7 +8431,7 @@
         <v>76</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>76</v>
@@ -8296,7 +8440,7 @@
         <v>76</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>290</v>
+        <v>157</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>76</v>
@@ -8307,14 +8451,14 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>404</v>
+        <v>423</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>404</v>
+        <v>423</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>132</v>
+        <v>76</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -8333,16 +8477,16 @@
         <v>76</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>133</v>
+        <v>332</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>134</v>
+        <v>424</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>292</v>
+        <v>425</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>136</v>
+        <v>426</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -8392,7 +8536,7 @@
         <v>76</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>293</v>
+        <v>423</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>77</v>
@@ -8404,16 +8548,16 @@
         <v>76</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>76</v>
+        <v>427</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>290</v>
+        <v>428</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>76</v>
@@ -8424,46 +8568,42 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>405</v>
+        <v>429</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>405</v>
+        <v>429</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>295</v>
+        <v>76</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>296</v>
+        <v>126</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O59" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="N59" s="2"/>
+      <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>76</v>
       </c>
@@ -8511,19 +8651,19 @@
         <v>76</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>298</v>
+        <v>128</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>138</v>
+        <v>76</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>76</v>
@@ -8532,7 +8672,7 @@
         <v>76</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>76</v>
@@ -8543,21 +8683,21 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>406</v>
+        <v>430</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>406</v>
+        <v>430</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>76</v>
+        <v>188</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>76</v>
@@ -8569,15 +8709,17 @@
         <v>76</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>245</v>
+        <v>131</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>407</v>
+        <v>189</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="N60" s="2"/>
+        <v>340</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>191</v>
+      </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>76</v>
@@ -8626,19 +8768,19 @@
         <v>76</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>406</v>
+        <v>137</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>76</v>
@@ -8647,7 +8789,7 @@
         <v>76</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>76</v>
@@ -8658,42 +8800,46 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>409</v>
+        <v>431</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>409</v>
+        <v>431</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>76</v>
+        <v>342</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>238</v>
+        <v>131</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>410</v>
+        <v>343</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="N61" s="2"/>
-      <c r="O61" s="2"/>
+        <v>344</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="O61" t="s" s="2">
+        <v>196</v>
+      </c>
       <c r="P61" t="s" s="2">
         <v>76</v>
       </c>
@@ -8741,19 +8887,19 @@
         <v>76</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>409</v>
+        <v>345</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>76</v>
@@ -8762,7 +8908,7 @@
         <v>76</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>130</v>
+        <v>157</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>76</v>
@@ -8773,10 +8919,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>412</v>
+        <v>432</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>412</v>
+        <v>432</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8787,7 +8933,7 @@
         <v>77</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>76</v>
@@ -8799,13 +8945,13 @@
         <v>76</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>162</v>
+        <v>262</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>413</v>
+        <v>433</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>414</v>
+        <v>434</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8832,13 +8978,13 @@
         <v>76</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>166</v>
+        <v>76</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>415</v>
+        <v>76</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>416</v>
+        <v>76</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>76</v>
@@ -8856,13 +9002,13 @@
         <v>76</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>412</v>
+        <v>432</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>76</v>
@@ -8874,10 +9020,10 @@
         <v>76</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>76</v>
+        <v>435</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>130</v>
+        <v>258</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>76</v>
@@ -8888,10 +9034,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>417</v>
+        <v>436</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>417</v>
+        <v>436</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8899,7 +9045,7 @@
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>87</v>
@@ -8914,17 +9060,15 @@
         <v>76</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>418</v>
+        <v>437</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>419</v>
+        <v>438</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>421</v>
-      </c>
+        <v>439</v>
+      </c>
+      <c r="N63" s="2"/>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>76</v>
@@ -8973,10 +9117,10 @@
         <v>76</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>417</v>
+        <v>436</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>87</v>
@@ -8991,10 +9135,10 @@
         <v>76</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>76</v>
+        <v>440</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>130</v>
+        <v>441</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>76</v>
@@ -9005,10 +9149,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>422</v>
+        <v>442</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>422</v>
+        <v>442</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9031,17 +9175,15 @@
         <v>76</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>418</v>
+        <v>268</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>423</v>
+        <v>443</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>421</v>
-      </c>
+        <v>444</v>
+      </c>
+      <c r="N64" s="2"/>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>76</v>
@@ -9090,7 +9232,7 @@
         <v>76</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>422</v>
+        <v>442</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>77</v>
@@ -9108,20 +9250,1065 @@
         <v>76</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>76</v>
+        <v>445</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>130</v>
+        <v>446</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AO64" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="65" hidden="true">
+      <c r="A65" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="D65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E65" s="2"/>
+      <c r="F65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="N65" s="2"/>
+      <c r="O65" s="2"/>
+      <c r="P65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q65" s="2"/>
+      <c r="R65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AN65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AO65" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="66" hidden="true">
+      <c r="A66" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="B66" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="C66" s="2"/>
+      <c r="D66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E66" s="2"/>
+      <c r="F66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="N66" s="2"/>
+      <c r="O66" s="2"/>
+      <c r="P66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q66" s="2"/>
+      <c r="R66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AN66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AO66" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="67" hidden="true">
+      <c r="A67" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="B67" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="C67" s="2"/>
+      <c r="D67" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="E67" s="2"/>
+      <c r="F67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="O67" s="2"/>
+      <c r="P67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q67" s="2"/>
+      <c r="R67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AN67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AO67" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="68" hidden="true">
+      <c r="A68" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="C68" s="2"/>
+      <c r="D68" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="E68" s="2"/>
+      <c r="F68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="O68" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="P68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q68" s="2"/>
+      <c r="R68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AN68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AO68" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="69" hidden="true">
+      <c r="A69" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="C69" s="2"/>
+      <c r="D69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E69" s="2"/>
+      <c r="F69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="N69" s="2"/>
+      <c r="O69" s="2"/>
+      <c r="P69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q69" s="2"/>
+      <c r="R69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AN69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AO69" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="70" hidden="true">
+      <c r="A70" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="C70" s="2"/>
+      <c r="D70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E70" s="2"/>
+      <c r="F70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="N70" s="2"/>
+      <c r="O70" s="2"/>
+      <c r="P70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q70" s="2"/>
+      <c r="R70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AN70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AO70" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="71" hidden="true">
+      <c r="A71" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="B71" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="C71" s="2"/>
+      <c r="D71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E71" s="2"/>
+      <c r="F71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="N71" s="2"/>
+      <c r="O71" s="2"/>
+      <c r="P71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q71" s="2"/>
+      <c r="R71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AN71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AO71" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="72" hidden="true">
+      <c r="A72" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="B72" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="C72" s="2"/>
+      <c r="D72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E72" s="2"/>
+      <c r="F72" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="O72" s="2"/>
+      <c r="P72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q72" s="2"/>
+      <c r="R72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AN72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AO72" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="73" hidden="true">
+      <c r="A73" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="B73" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="C73" s="2"/>
+      <c r="D73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E73" s="2"/>
+      <c r="F73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="O73" s="2"/>
+      <c r="P73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q73" s="2"/>
+      <c r="R73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AN73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AO73" t="s" s="2">
         <v>76</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO64">
+  <autoFilter ref="A1:AO73">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9131,7 +10318,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI63">
+  <conditionalFormatting sqref="A2:AI72">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/StructureDefinition-eicr-anon-immunization.xlsx
+++ b/output/StructureDefinition-eicr-anon-immunization.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-28T19:57:37+10:00</t>
+    <t>2024-06-28T20:58:40+10:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-eicr-anon-immunization.xlsx
+++ b/output/StructureDefinition-eicr-anon-immunization.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-28T20:58:40+10:00</t>
+    <t>2024-06-29T16:05:37+10:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -394,7 +394,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-eicr-anon-text:text.div SHALL be '&lt;div xmlns="http://www.w3.org/1999/xhtml"&gt;&lt;p&gt;MASKED&lt;/p&gt;&lt;/div&gt;' {`div` ~ '&lt;div xmlns="http://www.w3.org/1999/xhtml"&gt;&lt;p&gt;MASKED&lt;/p&gt;&lt;/div&gt;'}</t>
+eicr-anon-text:text.div SHALL be '&lt;div xmlns="http://www.w3.org/1999/xhtml"&gt;&lt;p&gt;MASKED&lt;/p&gt;&lt;/div&gt;' {exists() implies `div`.toString().matches('&lt;div xmlns="http://www.w3.org/1999/xhtml"&gt;\\s*&lt;p&gt;MASKED&lt;/p&gt;\\s*&lt;/div&gt;')}</t>
   </si>
   <si>
     <t>Act.text?</t>
